--- a/uploads/import/format/siswa.xlsx
+++ b/uploads/import/format/siswa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\cbt\uploads\import\format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D49B96-691A-45AA-BE62-5DE22A9A9D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B10BA7B-E0CB-402B-B2E8-EB24236CC1B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0D56BE62-EA18-41B7-A2D3-935A867C101B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>nisn</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>jenis_kelamin</t>
-  </si>
-  <si>
-    <t>id_kelas</t>
   </si>
 </sst>
 </file>
@@ -79,9 +76,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,32 +396,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{545C9157-9161-414C-98CE-7206738B4795}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.21875" style="1"/>
-    <col min="2" max="2" width="24.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="46.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" style="1" customWidth="1"/>
     <col min="4" max="16384" width="10.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
